--- a/DULieu.xlsx
+++ b/DULieu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="387">
   <si>
     <t>HoTen</t>
   </si>
@@ -1171,6 +1171,15 @@
   </si>
   <si>
     <t>anh_hs/44_Y.JPG</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/HJwKVrxRy8zAhtLL9</t>
+  </si>
+  <si>
+    <t>GhiChu</t>
+  </si>
+  <si>
+    <t>Học có cố gắng nhưng chậm</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1242,6 +1251,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1473,10 +1485,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1485,11 +1497,12 @@
     <col min="5" max="5" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" style="2" customWidth="1"/>
     <col min="7" max="13" width="12.6328125" style="2"/>
-    <col min="14" max="14" width="67.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="12.6328125" style="2"/>
+    <col min="14" max="14" width="22.26953125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="6"/>
+    <col min="16" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,11 +1545,14 @@
       <c r="N1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1579,11 +1595,14 @@
       <c r="N2" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1626,11 +1645,11 @@
       <c r="N3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1673,11 +1692,11 @@
       <c r="N4" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1718,11 +1737,11 @@
       <c r="N5" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1765,11 +1784,11 @@
       <c r="N6" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1812,11 +1831,11 @@
       <c r="N7" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1859,11 +1878,11 @@
       <c r="N8" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1906,11 +1925,11 @@
       <c r="N9" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1953,11 +1972,11 @@
       <c r="N10" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2000,11 +2019,11 @@
       <c r="N11" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2047,11 +2066,11 @@
       <c r="N12" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2092,11 +2111,11 @@
       <c r="N13" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2139,11 +2158,11 @@
       <c r="N14" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2186,11 +2205,11 @@
       <c r="N15" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2233,7 +2252,7 @@
       <c r="N16" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2280,7 +2299,7 @@
       <c r="N17" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2327,7 +2346,7 @@
       <c r="N18" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2374,7 +2393,7 @@
       <c r="N19" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2421,7 +2440,7 @@
       <c r="N20" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2466,7 +2485,7 @@
       <c r="N21" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2513,7 +2532,7 @@
       <c r="N22" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2558,7 +2577,7 @@
       <c r="N23" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2605,7 +2624,7 @@
       <c r="N24" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2652,7 +2671,7 @@
       <c r="N25" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2699,7 +2718,7 @@
       <c r="N26" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2746,7 +2765,7 @@
       <c r="N27" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2793,7 +2812,7 @@
       <c r="N28" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2834,7 +2853,7 @@
       <c r="N29" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2881,7 +2900,7 @@
       <c r="N30" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2926,7 +2945,7 @@
       <c r="N31" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2973,7 +2992,7 @@
       <c r="N32" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3020,7 +3039,7 @@
       <c r="N33" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3067,7 +3086,7 @@
       <c r="N34" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3114,7 +3133,7 @@
       <c r="N35" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3161,7 +3180,7 @@
       <c r="N36" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3208,7 +3227,7 @@
       <c r="N37" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3255,7 +3274,7 @@
       <c r="N38" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3300,7 +3319,7 @@
       <c r="N39" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3347,7 +3366,7 @@
       <c r="N40" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3394,7 +3413,7 @@
       <c r="N41" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3439,7 +3458,7 @@
       <c r="N42" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3484,7 +3503,7 @@
       <c r="N43" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3531,7 +3550,7 @@
       <c r="N44" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3578,7 +3597,7 @@
       <c r="N45" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="6" t="s">
         <v>316</v>
       </c>
     </row>
